--- a/resources/results/relationship_over_time.xlsx
+++ b/resources/results/relationship_over_time.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/UK_2021/Rumors/resources/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UK2021\CS660\Rumors\Rumors\resources\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70F648-F8F9-4A5F-B0E2-3905A3D98ABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -83,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -124,16 +134,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03515B"/>
+      <color rgb="FFFA8199"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -177,7 +196,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -258,154 +276,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,159 +435,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C2F-43B6-9D59-304229EBF1F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -616,154 +639,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,159 +798,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C2F-43B6-9D59-304229EBF1F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -976,154 +1004,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,159 +1163,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C2F-43B6-9D59-304229EBF1F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1304,7 +1337,7 @@
         <c:axId val="839201248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1348,7 +1381,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1378,6 +1410,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1422,7 +1455,7 @@
         <c:axId val="845741232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1475,8 +1508,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0101461738089505"/>
-              <c:y val="0.386596496073158"/>
+              <c:x val="1.01461738089505E-2"/>
+              <c:y val="0.38659649607315799"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1559,7 +1592,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1627,7 +1659,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1671,7 +1703,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,28 +1753,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="03515B"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1752,154 +1772,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,159 +1931,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B51-47DB-A046-812CF3E7D423}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2080,28 +2105,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2110,154 +2126,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,159 +2285,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B51-47DB-A046-812CF3E7D423}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2438,28 +2459,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FA8199"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2468,154 +2478,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,159 +2637,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B51-47DB-A046-812CF3E7D423}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2796,28 +2811,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="03515B"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2826,154 +2830,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,159 +2989,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B51-47DB-A046-812CF3E7D423}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3154,28 +3163,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3184,154 +3183,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,159 +3342,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0B51-47DB-A046-812CF3E7D423}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3512,28 +3516,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FA8199"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3542,154 +3534,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3701,159 +3693,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0B51-47DB-A046-812CF3E7D423}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3870,7 +3867,7 @@
         <c:axId val="839237088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3914,7 +3911,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3944,6 +3940,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3988,7 +3985,7 @@
         <c:axId val="839239216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4041,8 +4038,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0101461738089505"/>
-              <c:y val="0.386596496073158"/>
+              <c:x val="1.01461738089505E-2"/>
+              <c:y val="0.38659649607315799"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4125,7 +4122,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5321,7 +5317,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5351,7 +5353,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5633,16 +5641,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5657,7 +5665,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -5677,7 +5685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5700,7 +5708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -5724,7 +5732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A52" si="0">A4+1</f>
         <v>3</v>
@@ -5748,7 +5756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5772,7 +5780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5796,7 +5804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5820,7 +5828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5844,7 +5852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5868,7 +5876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5892,7 +5900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5916,7 +5924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5940,7 +5948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5964,7 +5972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5988,7 +5996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6012,7 +6020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6036,7 +6044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6060,7 +6068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6084,7 +6092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6108,7 +6116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6132,7 +6140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6156,7 +6164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6180,7 +6188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6204,7 +6212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6228,7 +6236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6252,7 +6260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6276,7 +6284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6300,7 +6308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6324,7 +6332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6348,7 +6356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6372,7 +6380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6396,7 +6404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6420,7 +6428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6444,7 +6452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6468,7 +6476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6492,7 +6500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6516,7 +6524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6540,7 +6548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6564,7 +6572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6588,7 +6596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6612,7 +6620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6636,7 +6644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6660,7 +6668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6684,7 +6692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6708,7 +6716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6732,7 +6740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6756,7 +6764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6780,7 +6788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6804,7 +6812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6828,7 +6836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6852,7 +6860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6876,7 +6884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -6891,7 +6899,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>14</v>
       </c>
@@ -6911,7 +6919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -6934,7 +6942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>A56+1</f>
         <v>2</v>
@@ -6958,7 +6966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ref="A58:A105" si="1">A57+1</f>
         <v>3</v>
@@ -6982,7 +6990,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7006,7 +7014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7030,7 +7038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7054,7 +7062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7078,7 +7086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7102,7 +7110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7126,7 +7134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7150,7 +7158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7174,7 +7182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7198,7 +7206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7222,7 +7230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7246,7 +7254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7270,7 +7278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7294,7 +7302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7318,7 +7326,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7342,7 +7350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7366,7 +7374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7390,7 +7398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7414,7 +7422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7438,7 +7446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7462,7 +7470,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7486,7 +7494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7510,7 +7518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7534,7 +7542,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7558,7 +7566,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7582,7 +7590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7606,7 +7614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7630,7 +7638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7654,7 +7662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7678,7 +7686,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7702,7 +7710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7726,7 +7734,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7750,7 +7758,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7774,7 +7782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7798,7 +7806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7822,7 +7830,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7846,7 +7854,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7870,7 +7878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7894,7 +7902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7918,7 +7926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7942,7 +7950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7966,7 +7974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7990,7 +7998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8014,7 +8022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8038,7 +8046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -8062,7 +8070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8086,7 +8094,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8110,7 +8118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>55</v>
       </c>
@@ -8121,7 +8129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>55</v>
       </c>
@@ -8132,7 +8140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>55</v>
       </c>
@@ -8143,7 +8151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>54</v>
       </c>
@@ -8154,7 +8162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>54</v>
       </c>
@@ -8165,7 +8173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>54</v>
       </c>
@@ -8176,7 +8184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>54</v>
       </c>
@@ -8187,7 +8195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>54</v>
       </c>
@@ -8198,7 +8206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>54</v>
       </c>
@@ -8209,7 +8217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>54</v>
       </c>
@@ -8220,7 +8228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>54</v>
       </c>
@@ -8231,7 +8239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>54</v>
       </c>
